--- a/scrapping/data/SBS/tasas/tasas.xlsx
+++ b/scrapping/data/SBS/tasas/tasas.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -659,12 +659,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -674,32 +674,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -734,34 +734,34 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>7.03</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>s.i.</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>7.53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -771,22 +771,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -846,19 +846,19 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10.43</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -933,29 +933,29 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>6.61</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -965,94 +965,94 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>8.25</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>s.i.</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1062,22 +1062,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1122,34 +1122,34 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>7.71</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14.14</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1219,34 +1219,34 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>6.51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1331,54 +1331,54 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>8.23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1413,59 +1413,59 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>8.33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1510,12 +1510,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1525,19 +1525,19 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>8.76</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1547,22 +1547,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1622,54 +1622,54 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1719,44 +1719,44 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>8.44</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1816,54 +1816,54 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1903,29 +1903,29 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1935,22 +1935,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2010,44 +2010,44 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>8.51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2107,44 +2107,44 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>9.41</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2204,19 +2204,19 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>11.11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2226,22 +2226,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2301,44 +2301,44 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>10.42</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2398,44 +2398,44 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2495,19 +2495,19 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>9.95</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2517,22 +2517,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>11.44</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2592,19 +2592,19 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>9.78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2614,22 +2614,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2689,44 +2689,44 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.04</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17.51</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>19.66</t>
+          <t>20.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>16.77</t>
+          <t>42.74</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2786,44 +2786,44 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>12.73</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18.73</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16.88</t>
+          <t>13.73</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2883,19 +2883,19 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>14.21</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27.92</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2980,19 +2980,19 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>8.53</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3012,12 +3012,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -3077,19 +3077,19 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>14.64</t>
+          <t>12.34</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>21.81</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -3174,19 +3174,19 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>11.49</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>42.74</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3271,19 +3271,19 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>11.44</t>
+          <t>11.47</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3318,12 +3318,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16.77</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3368,19 +3368,19 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>11.35</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3400,12 +3400,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3465,19 +3465,19 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>14.21</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33.20</t>
+          <t>34.42</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3562,19 +3562,19 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>24.80</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>12.40</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3659,19 +3659,19 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>16.58</t>
+          <t>17.00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>32.38</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3756,19 +3756,19 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>17.40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>11.00</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>10.07</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>8.64</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -4144,19 +4144,19 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>9.27</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4241,44 +4241,44 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>9.75</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>36.28</t>
+          <t>37.05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31.07</t>
+          <t>32.03</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>48.49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>47.97</t>
+          <t>52.10</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>44.12</t>
+          <t>44.73</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>61.19</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>49.10</t>
+          <t>48.44</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4338,44 +4338,44 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>47.13</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>39.28</t>
+          <t>40.17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31.07</t>
+          <t>32.03</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>53.47</t>
+          <t>55.47</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>34.94</t>
+          <t>34.05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>54.55</t>
+          <t>54.09</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>44.13</t>
+          <t>44.93</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>61.06</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>49.10</t>
+          <t>48.44</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4435,19 +4435,19 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>50.38</t>
+          <t>51.54</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>14.53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4532,19 +4532,19 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>14.53</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4564,12 +4564,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -4629,19 +4629,19 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>11.61</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4651,17 +4651,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4726,19 +4726,19 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>7.52</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12.77</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4748,22 +4748,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>8.47</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4927,12 +4927,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.86-7.157.477.756.98-7.44-6.32-10.62--7.03s.i.7.137.53  7.64-7.587.406.996.80-7.26---10.75---s.i.-7.67  7.73-6.837.357.666.65-6.85-5.94-10.43---s.i.7.437.03  7.94-7.648.478.256.96-7.98-6.85-9.04---s.i.6.937.97  7.47-7.157.389.419.50-7.37---10.21--7.51s.i.7.357.75  6.52-6.91--------14.14--6.91s.i.-7.92  6.57-7.38--11.22-8.21---10.20---s.i.-7.54  9.258.438.578.559.857.678.638.76-7.66-9.46--9.26s.i.-8.75  10.257.768.618.559.697.63-8.62-8.06-12.27---s.i.-9.06  8.02-8.5911.118.808.43-9.06---8.52--9.62s.i.-8.53  9.007.738.938.9010.917.868.639.38-7.48-9.14---s.i.-8.94  8.448.608.597.729.838.02-8.30---10.51--8.90s.i.-8.69  8.2010.208.019.5510.017.27-10.09-7.74-11.99---s.i.-8.20  9.45-7.559.009.267.06-8.79---8.85---s.i.-8.11  9.368.889.979.1312.148.66-9.25---10.57---s.i.-9.71  11.4710.5011.2410.0313.2210.42-9.63---11.42---s.i.-11.03  9.32-11.027.628.6411.87-9.36---8.91---s.i.-10.06  9.818.079.468.4512.128.52-9.08---9.89---s.i.-9.45  10.839.369.999.9611.519.28-10.17---11.28---s.i.-10.17  9.67-9.0510.0512.199.94-9.85---11.64---s.i.-10.07  8.56-8.53-9.917.20-8.18---10.48---s.i.-8.79  17.51-12.8113.5219.6611.13-11.8416.77------s.i.-13.43  18.73-16.8813.7520.6510.70-12.45-------s.i.-15.90  27.92-15.00----8.49-------s.i.-15.68  21.21-11.14-10.8010.09---------s.i.-14.64  16.24-11.96-12.0014.12-10.86-------s.i.-13.52  18.22-10.69--13.33---------s.i.-11.44  13.79-8.7713.50-13.12--16.77------s.i.-9.49  21.69-15.3529.90-10.26-10.59-------s.i.-15.92  33.20-20.6029.90-----------s.i.-24.53  --16.97--8.62-13.97-------s.i.-16.58  10.31------15.00-------s.i.-11.74  22.00--------------s.i.-22.00  -----10.90---------s.i.-10.90  --10.68----10.00-------s.i.-10.49  -----10.97---------s.i.-10.97  10.89-16.75------------s.i.-11.64  36.2831.0748.0034.8747.9744.12-61.19-49.10-----s.i.-46.82  39.2831.0753.4734.9454.5544.13-61.55-49.10-----s.i.-50.38  14.46--------------s.i.-14.46  13.11-11.68-12.0210.20---------s.i.-11.96  6.96-7.8613.009.60--13.99-------s.i.-7.62  12.77-9.5212.249.97--9.26-------s.i.-9.98  ---------------s.i.--  7.29-8.01-9.087.85-8.41-------s.i.-7.87  7.29-8.01-9.087.85-8.41-------s.i.-7.87</t>
+          <t>BBVABancomCréditoPichinchaBIFScotiabankCitibankInterbankMibancoGNBFalabellaSantanderRipleyAlfinICBCBank of ChinaBCIPromedio  6.39-6.767.2810.466.875.997.01-6.45-9.79--7.256.088.517.03  6.77-7.466.185.916.72-6.97---10.48-----7.35  6.44-6.657.59-6.52-6.81---8.71----7.406.61  7.04-6.848.857.617.50-8.60-6.45-8.91----8.257.59  7.78-7.266.778.638.92-6.90---11.38--7.256.45-7.71  5.86-6.58--6.105.99----11.23---5.7011.056.51  6.28-6.60-11.8011.24-7.15---11.73-----8.23  8.578.588.167.649.427.816.627.64-10.53-9.36--7.56-6.048.33  9.519.058.387.108.697.60-9.01-7.79-11.30--6.83--8.76  7.77-8.189.008.687.78---6.55-8.41-----8.16  7.757.608.518.4410.587.97-8.45-7.10-9.06-----8.44  8.619.498.156.9710.108.19-8.22-10.02-10.31--7.76--8.53  7.94-7.478.509.83-6.626.56---11.48----6.047.18  8.10-8.117.56-7.59-7.05-11.81-9.28-----8.51  8.698.7110.249.6512.219.02-8.96-6.28-10.45-----9.41  12.797.8111.379.5013.3010.40-9.30---11.16-----11.11  11.19-10.398.599.8110.65-9.88---9.08-----10.42  9.717.7810.779.1112.318.96-9.14-6.28-9.37-----10.00  11.4910.049.9010.4613.298.86-8.53---10.54-----9.95  9.98-8.64-9.129.90-7.67---11.44-----9.78  7.95-8.928.9710.977.42-8.08---------8.04  12.3813.0012.82-20.5311.47-10.5142.748.71-9.08-----12.73  20.6513.0013.73-23.2612.42-10.28---------14.21  27.67-8.18--8.94-----8.19-----8.53  15.79-12.51-11.3112.00-10.54---10.15-----12.34  21.81-11.01--13.47---8.71-------11.49  11.69-10.40--10.16--42.74--------11.47  10.96-14.12--10.55-11.00---------11.35  16.62-13.7429.9024.008.73-15.00---------14.21  34.42-21.7129.90-------------24.80  12.00-16.89-24.0012.40-----------17.00  32.38------15.00---------17.40  -----11.00-----------11.00  --10.26--7.51-----------10.07  9.97-8.55--------------8.64  --9.27--------------9.27  9.75----------------9.75  37.0532.0348.4932.7452.1044.73-59.95-48.44-------47.13  40.1732.0355.4734.0554.0944.93-61.06-48.44-------51.54  14.53----------------14.53  11.22-11.73-10.89------------11.61  6.65-7.8119.0011.28--14.99---------7.52  13.31-7.8811.5610.398.40-6.76---------8.47  ------------------  7.26-7.50-10.498.25-8.14---------7.59  7.26-7.50-10.498.25-8.14---------7.59</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -5017,14 +5017,14 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>7.59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
